--- a/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_blank_sample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_blank_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F997EA-43D6-4545-A0EB-CB791F491434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48589DC-7D8C-5044-873F-680B80BF1EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19120" windowHeight="10560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
     <sheet name="Normalized" sheetId="3" r:id="rId3"/>
     <sheet name="PoolAfterDF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="44">
   <si>
     <t>label</t>
   </si>
@@ -166,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,6 +192,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,11 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1627,133 +1653,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>9553199.8908905108</v>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D2">
         <v>9553199.8908905108</v>
       </c>
       <c r="E2">
+        <v>9553199.8908905108</v>
+      </c>
+      <c r="F2">
         <v>481379.86936945003</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6352156.8061723104</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7311072.86675868</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10836076.469884399</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8844540.0949213207</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>28612722.476852302</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40317702.586357497</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>11705516.298077701</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6646281.0468481798</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>9169550.9417901207</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>16907675.461184502</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2537065.3634079299</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8223461.1295415796</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>20483.785987891501</v>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D3">
         <v>20483.785987891501</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20483.785987891501</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1768,151 +1800,160 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>103580.686176551</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>168375.15975918001</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>3678.4880437973802</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>45362.039738888001</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>7796.5240842087896</v>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D4">
         <v>7796.5240842087896</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7796.5240842087896</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>6139.2524529842904</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4548.2422476682004</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5748.4921841503501</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15947.432266358701</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>31611.622730911098</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>47831.837990902997</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17062.562569097601</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>7056.08051566632</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>10273.7308253397</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>26900.716686642201</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>14684.276027297799</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>17014.401526796901</v>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D5">
         <v>17014.401526796901</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17014.401526796901</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>7089.4926478111502</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>7942.9077414323601</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11076.481965274101</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>41976.308665395802</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>65245.027448590503</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>13429.703667621499</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>11608.2757786005</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>12093.561942681599</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>15492.659816798399</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3527.3270854223701</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>11564.9639029625</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>618.081651788915</v>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D6">
         <v>618.081651788915</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>618.081651788915</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1939,27 +1980,30 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>1108.49326287298</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1974,14 +2018,14 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>6191.5586356841504</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1540.2863973388401</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -2003,16 +2047,19 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2024,11 +2071,11 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1086.84542782207</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -2042,230 +2089,245 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>2135.9480285497998</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>3136.5746778450798</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1907.72300355334</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3414.3510683792301</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>75685330.611673594</v>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D9">
         <v>75685330.611673594</v>
       </c>
       <c r="E9">
+        <v>75685330.611673594</v>
+      </c>
+      <c r="F9">
         <v>142624139.9382</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>139501627.42735499</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>176980460.06383899</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17594038.9831804</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>241525542.51354399</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>113474481.338893</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>33001363.091166198</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>96922646.974257007</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>39039993.7441587</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>201963987.31286699</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>82867889.380171999</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>106187895.04979201</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>40809231.283318803</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>142847.40197330099</v>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D10">
         <v>142847.40197330099</v>
       </c>
       <c r="E10">
+        <v>142847.40197330099</v>
+      </c>
+      <c r="F10">
         <v>427667.93277109001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>353682.98632769502</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>371095.42711915501</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>26935.847613256399</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>579936.47593448102</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>360185.19262989302</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>97916.505120024594</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>221186.20121246699</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>63173.898101142702</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>618607.71694354899</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>234495.30127118199</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>260672.17138108599</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>123590.239622787</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>24301.335095631301</v>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D11">
         <v>24301.335095631301</v>
       </c>
       <c r="E11">
+        <v>24301.335095631301</v>
+      </c>
+      <c r="F11">
         <v>61771.426642915998</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>83836.399606931896</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>32078.094108519501</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7048.3659314860697</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>19101.729273567398</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>49892.2867246034</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>7667.1543206715296</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>36552.201097079</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>11542.2164957695</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>19434.485303024201</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>25372.564071391698</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>27137.305643829099</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>12000.7686052836</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>125043.609381403</v>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D12">
         <v>125043.609381403</v>
       </c>
       <c r="E12">
+        <v>125043.609381403</v>
+      </c>
+      <c r="F12">
         <v>104907.109575394</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>122231.378898289</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>175015.92124793099</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>55717.48037392</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>99858.545991423802</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>112316.621861284</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>85947.453184794897</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>77493.370166135894</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>68727.258262759598</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>159347.12588896</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>84349.676285170004</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>155325.16388088599</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>64306.133785626102</v>
       </c>
     </row>
